--- a/Analysis/NoiDungCongViec.xlsx
+++ b/Analysis/NoiDungCongViec.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Qtrinh xử lý" sheetId="6" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="7" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1099,6 +1099,195 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1109,24 +1298,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1162,42 +1333,6 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1224,141 +1359,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1397,7 +1397,7 @@
         <xdr:cNvPr id="2" name="Oval 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55C93E3D-E361-40F1-B472-34F3ABEEE363}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{55C93E3D-E361-40F1-B472-34F3ABEEE363}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1465,7 @@
         <xdr:cNvPr id="3" name="Oval 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24F48673-97FE-479F-8545-725E3CA67A60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{24F48673-97FE-479F-8545-725E3CA67A60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1533,7 +1533,7 @@
         <xdr:cNvPr id="4" name="Diamond 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49D1FA64-BA78-4CDC-9013-00FDD6C42C99}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49D1FA64-BA78-4CDC-9013-00FDD6C42C99}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1596,7 +1596,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44603D27-8DB9-4079-B04C-AF70B8B2FF3B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{44603D27-8DB9-4079-B04C-AF70B8B2FF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1652,7 @@
         <xdr:cNvPr id="8" name="Connector: Elbow 7" title="từ chối">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8238AD13-AA7D-47C7-B49E-3D4BB1B641A3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8238AD13-AA7D-47C7-B49E-3D4BB1B641A3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1710,7 +1710,7 @@
         <xdr:cNvPr id="10" name="Flowchart: Process 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA9637DC-CE4C-4E2F-88E5-D3F58CBFE19B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{BA9637DC-CE4C-4E2F-88E5-D3F58CBFE19B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1803,7 +1803,7 @@
         <xdr:cNvPr id="12" name="Flowchart: Process 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{08336196-E062-4583-AE1A-8C8999B2A5CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{08336196-E062-4583-AE1A-8C8999B2A5CC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1887,7 @@
         <xdr:cNvPr id="16" name="Straight Arrow Connector 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDB6D0CB-51CC-4EF2-9F17-9FF0995F4322}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{DDB6D0CB-51CC-4EF2-9F17-9FF0995F4322}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1943,7 +1943,7 @@
         <xdr:cNvPr id="17" name="Flowchart: Process 16">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6652CA52-E4D3-47FC-8ECB-71F95053D2CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6652CA52-E4D3-47FC-8ECB-71F95053D2CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2036,7 +2036,7 @@
         <xdr:cNvPr id="18" name="Connector: Elbow 17" title="từ chối">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4C86CA5D-4660-4AAF-B423-2D930A6C2599}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{4C86CA5D-4660-4AAF-B423-2D930A6C2599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2094,7 +2094,7 @@
         <xdr:cNvPr id="23" name="Flowchart: Process 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{054F46D8-3618-4182-B7FE-CAB16B14E1A5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{054F46D8-3618-4182-B7FE-CAB16B14E1A5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2178,7 +2178,7 @@
         <xdr:cNvPr id="24" name="Connector: Elbow 23" title="từ chối">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4594128-4EA3-4D10-A2B0-B463A1114B4E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F4594128-4EA3-4D10-A2B0-B463A1114B4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2236,7 +2236,7 @@
         <xdr:cNvPr id="29" name="Flowchart: Process 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E20027BB-8588-481F-8E05-FC3CDDDB89F1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E20027BB-8588-481F-8E05-FC3CDDDB89F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2688,21 +2688,21 @@
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="101" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="39"/>
-      <c r="J7" s="39"/>
-      <c r="K7" s="39"/>
-      <c r="L7" s="39"/>
-      <c r="M7" s="39"/>
-      <c r="N7" s="39"/>
-      <c r="O7" s="39"/>
-      <c r="P7" s="39"/>
+      <c r="E7" s="102"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="102"/>
+      <c r="H7" s="102"/>
+      <c r="I7" s="102"/>
+      <c r="J7" s="102"/>
+      <c r="K7" s="102"/>
+      <c r="L7" s="102"/>
+      <c r="M7" s="102"/>
+      <c r="N7" s="102"/>
+      <c r="O7" s="102"/>
+      <c r="P7" s="102"/>
       <c r="Q7" s="2" t="s">
         <v>26</v>
       </c>
@@ -2793,36 +2793,36 @@
       <c r="W10" s="16"/>
     </row>
     <row r="11" spans="2:23" ht="63" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41">
+      <c r="B11" s="103"/>
+      <c r="C11" s="44">
         <v>1</v>
       </c>
-      <c r="D11" s="50" t="s">
+      <c r="D11" s="107" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="71"/>
-      <c r="R11" s="41">
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="108"/>
+      <c r="M11" s="108"/>
+      <c r="N11" s="108"/>
+      <c r="O11" s="108"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="116"/>
+      <c r="R11" s="44">
         <v>1</v>
       </c>
-      <c r="S11" s="41">
+      <c r="S11" s="44">
         <v>7</v>
       </c>
-      <c r="T11" s="109">
+      <c r="T11" s="81">
         <v>2</v>
       </c>
-      <c r="U11" s="41">
+      <c r="U11" s="44">
         <f>SUM(T11*S11*R11*R4)</f>
         <v>18.900000000000002</v>
       </c>
@@ -2830,73 +2830,73 @@
       <c r="W11" s="16"/>
     </row>
     <row r="12" spans="2:23" ht="33.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="110"/>
-      <c r="U12" s="42"/>
+      <c r="B12" s="103"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="110"/>
+      <c r="E12" s="111"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="111"/>
+      <c r="H12" s="111"/>
+      <c r="I12" s="111"/>
+      <c r="J12" s="111"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="112"/>
+      <c r="Q12" s="117"/>
+      <c r="R12" s="45"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="82"/>
+      <c r="U12" s="45"/>
       <c r="V12" s="16"/>
       <c r="W12" s="16"/>
     </row>
     <row r="13" spans="2:23" ht="53.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="40"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="57"/>
-      <c r="O13" s="57"/>
-      <c r="P13" s="58"/>
-      <c r="Q13" s="73"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="111"/>
-      <c r="U13" s="43"/>
+      <c r="B13" s="103"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="114"/>
+      <c r="J13" s="114"/>
+      <c r="K13" s="114"/>
+      <c r="L13" s="114"/>
+      <c r="M13" s="114"/>
+      <c r="N13" s="114"/>
+      <c r="O13" s="114"/>
+      <c r="P13" s="115"/>
+      <c r="Q13" s="118"/>
+      <c r="R13" s="46"/>
+      <c r="S13" s="46"/>
+      <c r="T13" s="83"/>
+      <c r="U13" s="46"/>
       <c r="V13" s="16"/>
       <c r="W13" s="16"/>
     </row>
     <row r="14" spans="2:23" ht="53.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="40"/>
+      <c r="B14" s="103"/>
       <c r="C14" s="31">
         <v>2</v>
       </c>
-      <c r="D14" s="77" t="s">
+      <c r="D14" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="78"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="78"/>
-      <c r="H14" s="78"/>
-      <c r="I14" s="78"/>
-      <c r="J14" s="78"/>
-      <c r="K14" s="78"/>
-      <c r="L14" s="78"/>
-      <c r="M14" s="78"/>
-      <c r="N14" s="78"/>
-      <c r="O14" s="78"/>
-      <c r="P14" s="79"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="123"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
+      <c r="M14" s="123"/>
+      <c r="N14" s="123"/>
+      <c r="O14" s="123"/>
+      <c r="P14" s="124"/>
       <c r="Q14" s="36"/>
       <c r="R14" s="31"/>
       <c r="S14" s="31"/>
@@ -2906,37 +2906,37 @@
       <c r="W14" s="16"/>
     </row>
     <row r="15" spans="2:23" ht="53.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41">
+      <c r="B15" s="103"/>
+      <c r="C15" s="44">
         <v>3</v>
       </c>
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="75"/>
-      <c r="R15" s="41">
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
+      <c r="I15" s="108"/>
+      <c r="J15" s="108"/>
+      <c r="K15" s="108"/>
+      <c r="L15" s="108"/>
+      <c r="M15" s="108"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="120"/>
+      <c r="R15" s="44">
         <v>2</v>
       </c>
-      <c r="S15" s="41">
+      <c r="S15" s="44">
         <f>SUM(R2*U2 + R2*U2*R3)</f>
         <v>6.75</v>
       </c>
-      <c r="T15" s="109">
+      <c r="T15" s="81">
         <v>23</v>
       </c>
-      <c r="U15" s="41">
+      <c r="U15" s="44">
         <f>SUM(T15*S15*R3*R4)</f>
         <v>73.355625000000003</v>
       </c>
@@ -2944,103 +2944,103 @@
       <c r="W15" s="16"/>
     </row>
     <row r="16" spans="2:23" ht="53.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="40"/>
-      <c r="C16" s="42"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="55"/>
-      <c r="Q16" s="76"/>
-      <c r="R16" s="42"/>
-      <c r="S16" s="42"/>
-      <c r="T16" s="110"/>
-      <c r="U16" s="42"/>
+      <c r="B16" s="103"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="111"/>
+      <c r="M16" s="111"/>
+      <c r="N16" s="111"/>
+      <c r="O16" s="111"/>
+      <c r="P16" s="112"/>
+      <c r="Q16" s="121"/>
+      <c r="R16" s="45"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="82"/>
+      <c r="U16" s="45"/>
       <c r="V16" s="16"/>
       <c r="W16" s="16"/>
     </row>
     <row r="17" spans="2:23" ht="53.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="40"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="55"/>
-      <c r="Q17" s="76"/>
-      <c r="R17" s="42"/>
-      <c r="S17" s="42"/>
-      <c r="T17" s="110"/>
-      <c r="U17" s="42"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="110"/>
+      <c r="E17" s="111"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="111"/>
+      <c r="J17" s="111"/>
+      <c r="K17" s="111"/>
+      <c r="L17" s="111"/>
+      <c r="M17" s="111"/>
+      <c r="N17" s="111"/>
+      <c r="O17" s="111"/>
+      <c r="P17" s="112"/>
+      <c r="Q17" s="121"/>
+      <c r="R17" s="45"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="82"/>
+      <c r="U17" s="45"/>
       <c r="V17" s="16"/>
       <c r="W17" s="16"/>
     </row>
     <row r="18" spans="2:23" ht="1.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="40"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="55"/>
-      <c r="Q18" s="76"/>
-      <c r="R18" s="42"/>
-      <c r="S18" s="42"/>
-      <c r="T18" s="110"/>
-      <c r="U18" s="42"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="110"/>
+      <c r="E18" s="111"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="111"/>
+      <c r="H18" s="111"/>
+      <c r="I18" s="111"/>
+      <c r="J18" s="111"/>
+      <c r="K18" s="111"/>
+      <c r="L18" s="111"/>
+      <c r="M18" s="111"/>
+      <c r="N18" s="111"/>
+      <c r="O18" s="111"/>
+      <c r="P18" s="112"/>
+      <c r="Q18" s="121"/>
+      <c r="R18" s="45"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="82"/>
+      <c r="U18" s="45"/>
       <c r="V18" s="16"/>
       <c r="W18" s="16"/>
     </row>
     <row r="19" spans="2:23" ht="11.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="40"/>
-      <c r="C19" s="42"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55"/>
-      <c r="Q19" s="76"/>
-      <c r="R19" s="42"/>
-      <c r="S19" s="42"/>
-      <c r="T19" s="110"/>
-      <c r="U19" s="42"/>
+      <c r="B19" s="103"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="110"/>
+      <c r="E19" s="111"/>
+      <c r="F19" s="111"/>
+      <c r="G19" s="111"/>
+      <c r="H19" s="111"/>
+      <c r="I19" s="111"/>
+      <c r="J19" s="111"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="111"/>
+      <c r="M19" s="111"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="111"/>
+      <c r="P19" s="112"/>
+      <c r="Q19" s="121"/>
+      <c r="R19" s="45"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="82"/>
+      <c r="U19" s="45"/>
       <c r="V19" s="16"/>
       <c r="W19" s="16"/>
     </row>
     <row r="20" spans="2:23" ht="53.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="40"/>
+      <c r="B20" s="103"/>
       <c r="C20" s="31"/>
       <c r="D20" s="33"/>
       <c r="E20" s="34"/>
@@ -3064,36 +3064,36 @@
       <c r="W20" s="16"/>
     </row>
     <row r="21" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="40"/>
-      <c r="C21" s="41">
+      <c r="B21" s="103"/>
+      <c r="C21" s="44">
         <v>4</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="60"/>
-      <c r="J21" s="60"/>
-      <c r="K21" s="60"/>
-      <c r="L21" s="60"/>
-      <c r="M21" s="60"/>
-      <c r="N21" s="60"/>
-      <c r="O21" s="60"/>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="68"/>
-      <c r="R21" s="100">
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="38">
         <v>2</v>
       </c>
-      <c r="S21" s="100">
+      <c r="S21" s="38">
         <v>6</v>
       </c>
-      <c r="T21" s="103">
+      <c r="T21" s="47">
         <v>4</v>
       </c>
-      <c r="U21" s="41">
+      <c r="U21" s="44">
         <f>SUM(T21*S21*R21*R4)</f>
         <v>64.800000000000011</v>
       </c>
@@ -3101,969 +3101,969 @@
       <c r="W21" s="16"/>
     </row>
     <row r="22" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="40"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="63"/>
-      <c r="F22" s="63"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="63"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="69"/>
-      <c r="R22" s="101"/>
-      <c r="S22" s="101"/>
-      <c r="T22" s="104"/>
-      <c r="U22" s="42"/>
+      <c r="B22" s="103"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55"/>
+      <c r="Q22" s="60"/>
+      <c r="R22" s="39"/>
+      <c r="S22" s="39"/>
+      <c r="T22" s="48"/>
+      <c r="U22" s="45"/>
       <c r="V22" s="16"/>
       <c r="W22" s="16"/>
     </row>
     <row r="23" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="40"/>
-      <c r="C23" s="42"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="63"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="69"/>
-      <c r="R23" s="101"/>
-      <c r="S23" s="101"/>
-      <c r="T23" s="104"/>
-      <c r="U23" s="42"/>
+      <c r="B23" s="103"/>
+      <c r="C23" s="45"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="54"/>
+      <c r="G23" s="54"/>
+      <c r="H23" s="54"/>
+      <c r="I23" s="54"/>
+      <c r="J23" s="54"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="54"/>
+      <c r="M23" s="54"/>
+      <c r="N23" s="54"/>
+      <c r="O23" s="54"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="60"/>
+      <c r="R23" s="39"/>
+      <c r="S23" s="39"/>
+      <c r="T23" s="48"/>
+      <c r="U23" s="45"/>
       <c r="V23" s="16"/>
       <c r="W23" s="16"/>
     </row>
     <row r="24" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="40"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="63"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="69"/>
-      <c r="R24" s="101"/>
-      <c r="S24" s="101"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="42"/>
+      <c r="B24" s="103"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+      <c r="N24" s="54"/>
+      <c r="O24" s="54"/>
+      <c r="P24" s="55"/>
+      <c r="Q24" s="60"/>
+      <c r="R24" s="39"/>
+      <c r="S24" s="39"/>
+      <c r="T24" s="48"/>
+      <c r="U24" s="45"/>
       <c r="V24" s="16"/>
       <c r="W24" s="16"/>
     </row>
     <row r="25" spans="2:23" ht="170.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="40"/>
-      <c r="C25" s="43"/>
-      <c r="D25" s="65"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
-      <c r="M25" s="66"/>
-      <c r="N25" s="66"/>
-      <c r="O25" s="66"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="70"/>
-      <c r="R25" s="102"/>
-      <c r="S25" s="102"/>
-      <c r="T25" s="105"/>
-      <c r="U25" s="43"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+      <c r="K25" s="57"/>
+      <c r="L25" s="57"/>
+      <c r="M25" s="57"/>
+      <c r="N25" s="57"/>
+      <c r="O25" s="57"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="61"/>
+      <c r="R25" s="40"/>
+      <c r="S25" s="40"/>
+      <c r="T25" s="49"/>
+      <c r="U25" s="46"/>
       <c r="V25" s="16"/>
       <c r="W25" s="16"/>
     </row>
     <row r="26" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="40"/>
-      <c r="C26" s="41">
+      <c r="B26" s="103"/>
+      <c r="C26" s="44">
         <v>5</v>
       </c>
-      <c r="D26" s="112" t="s">
+      <c r="D26" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="113"/>
-      <c r="F26" s="113"/>
-      <c r="G26" s="113"/>
-      <c r="H26" s="113"/>
-      <c r="I26" s="113"/>
-      <c r="J26" s="113"/>
-      <c r="K26" s="113"/>
-      <c r="L26" s="113"/>
-      <c r="M26" s="113"/>
-      <c r="N26" s="113"/>
-      <c r="O26" s="113"/>
-      <c r="P26" s="114"/>
-      <c r="Q26" s="74" t="s">
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="119" t="s">
         <v>38</v>
       </c>
-      <c r="R26" s="100">
+      <c r="R26" s="38">
         <v>1</v>
       </c>
-      <c r="S26" s="100">
+      <c r="S26" s="38">
         <v>6</v>
       </c>
-      <c r="T26" s="103">
+      <c r="T26" s="47">
         <v>2</v>
       </c>
-      <c r="U26" s="41">
+      <c r="U26" s="44">
         <f>SUM(S26*T26*R26*R4)</f>
         <v>16.200000000000003</v>
       </c>
     </row>
     <row r="27" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="40"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="115"/>
-      <c r="E27" s="116"/>
-      <c r="F27" s="116"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="116"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="116"/>
-      <c r="M27" s="116"/>
-      <c r="N27" s="116"/>
-      <c r="O27" s="116"/>
-      <c r="P27" s="117"/>
-      <c r="Q27" s="69"/>
-      <c r="R27" s="101"/>
-      <c r="S27" s="101"/>
-      <c r="T27" s="104"/>
-      <c r="U27" s="42"/>
+      <c r="B27" s="103"/>
+      <c r="C27" s="45"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="67"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="39"/>
+      <c r="S27" s="39"/>
+      <c r="T27" s="48"/>
+      <c r="U27" s="45"/>
     </row>
     <row r="28" spans="2:23" ht="38.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="40"/>
-      <c r="C28" s="42"/>
-      <c r="D28" s="115"/>
-      <c r="E28" s="116"/>
-      <c r="F28" s="116"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="116"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="116"/>
-      <c r="M28" s="116"/>
-      <c r="N28" s="116"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="117"/>
-      <c r="Q28" s="69"/>
-      <c r="R28" s="101"/>
-      <c r="S28" s="101"/>
-      <c r="T28" s="104"/>
-      <c r="U28" s="42"/>
+      <c r="B28" s="103"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="66"/>
+      <c r="F28" s="66"/>
+      <c r="G28" s="66"/>
+      <c r="H28" s="66"/>
+      <c r="I28" s="66"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="66"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
+      <c r="P28" s="67"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="39"/>
+      <c r="S28" s="39"/>
+      <c r="T28" s="48"/>
+      <c r="U28" s="45"/>
     </row>
     <row r="29" spans="2:23" ht="123" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="40"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="119"/>
-      <c r="G29" s="119"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="119"/>
-      <c r="K29" s="119"/>
-      <c r="L29" s="119"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="119"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="70"/>
-      <c r="R29" s="102"/>
-      <c r="S29" s="102"/>
-      <c r="T29" s="105"/>
-      <c r="U29" s="43"/>
+      <c r="B29" s="103"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="69"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
+      <c r="M29" s="69"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="69"/>
+      <c r="P29" s="70"/>
+      <c r="Q29" s="61"/>
+      <c r="R29" s="40"/>
+      <c r="S29" s="40"/>
+      <c r="T29" s="49"/>
+      <c r="U29" s="46"/>
     </row>
     <row r="30" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="40"/>
-      <c r="C30" s="41">
+      <c r="B30" s="103"/>
+      <c r="C30" s="44">
         <v>6</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
-      <c r="J30" s="60"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="60"/>
-      <c r="M30" s="60"/>
-      <c r="N30" s="60"/>
-      <c r="O30" s="60"/>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="68"/>
-      <c r="R30" s="100">
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="38">
         <v>1</v>
       </c>
-      <c r="S30" s="100">
+      <c r="S30" s="38">
         <v>2</v>
       </c>
-      <c r="T30" s="103">
+      <c r="T30" s="47">
         <v>1</v>
       </c>
-      <c r="U30" s="41">
+      <c r="U30" s="44">
         <f>SUM(S30*T30*R4*R30)</f>
         <v>2.7</v>
       </c>
     </row>
     <row r="31" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="40"/>
-      <c r="C31" s="42"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63"/>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="63"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="69"/>
-      <c r="R31" s="101"/>
-      <c r="S31" s="101"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="42"/>
+      <c r="B31" s="103"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="54"/>
+      <c r="H31" s="54"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="54"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="54"/>
+      <c r="M31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="54"/>
+      <c r="P31" s="55"/>
+      <c r="Q31" s="60"/>
+      <c r="R31" s="39"/>
+      <c r="S31" s="39"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="45"/>
     </row>
     <row r="32" spans="2:23" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C32" s="42"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="63"/>
-      <c r="F32" s="63"/>
-      <c r="G32" s="63"/>
-      <c r="H32" s="63"/>
-      <c r="I32" s="63"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="63"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="69"/>
-      <c r="R32" s="101"/>
-      <c r="S32" s="101"/>
-      <c r="T32" s="104"/>
-      <c r="U32" s="42"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="54"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="60"/>
+      <c r="R32" s="39"/>
+      <c r="S32" s="39"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="45"/>
     </row>
     <row r="33" spans="3:21" ht="38.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C33" s="43"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="70"/>
-      <c r="R33" s="102"/>
-      <c r="S33" s="102"/>
-      <c r="T33" s="105"/>
-      <c r="U33" s="43"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="56"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="57"/>
+      <c r="M33" s="57"/>
+      <c r="N33" s="57"/>
+      <c r="O33" s="57"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="61"/>
+      <c r="R33" s="40"/>
+      <c r="S33" s="40"/>
+      <c r="T33" s="49"/>
+      <c r="U33" s="46"/>
     </row>
     <row r="34" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C34" s="41">
+      <c r="C34" s="44">
         <v>7</v>
       </c>
-      <c r="D34" s="59" t="s">
+      <c r="D34" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="60"/>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
-      <c r="J34" s="60"/>
-      <c r="K34" s="60"/>
-      <c r="L34" s="60"/>
-      <c r="M34" s="60"/>
-      <c r="N34" s="60"/>
-      <c r="O34" s="60"/>
-      <c r="P34" s="61"/>
-      <c r="Q34" s="68"/>
-      <c r="R34" s="100">
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="38">
         <v>1</v>
       </c>
-      <c r="S34" s="100">
+      <c r="S34" s="38">
         <v>5</v>
       </c>
-      <c r="T34" s="103">
+      <c r="T34" s="47">
         <v>3</v>
       </c>
-      <c r="U34" s="41">
+      <c r="U34" s="44">
         <f>SUM(S34*T34*R34*R4)</f>
         <v>20.25</v>
       </c>
     </row>
     <row r="35" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C35" s="42"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="63"/>
-      <c r="G35" s="63"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="63"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="69"/>
-      <c r="R35" s="101"/>
-      <c r="S35" s="101"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="42"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="54"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="54"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="54"/>
+      <c r="P35" s="55"/>
+      <c r="Q35" s="60"/>
+      <c r="R35" s="39"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="45"/>
     </row>
     <row r="36" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C36" s="42"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="63"/>
-      <c r="G36" s="63"/>
-      <c r="H36" s="63"/>
-      <c r="I36" s="63"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="63"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="69"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="101"/>
-      <c r="T36" s="104"/>
-      <c r="U36" s="42"/>
+      <c r="C36" s="45"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="54"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="55"/>
+      <c r="Q36" s="60"/>
+      <c r="R36" s="39"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="45"/>
     </row>
     <row r="37" spans="3:21" ht="84.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C37" s="43"/>
-      <c r="D37" s="65"/>
-      <c r="E37" s="66"/>
-      <c r="F37" s="66"/>
-      <c r="G37" s="66"/>
-      <c r="H37" s="66"/>
-      <c r="I37" s="66"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="66"/>
-      <c r="L37" s="66"/>
-      <c r="M37" s="66"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="66"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="70"/>
-      <c r="R37" s="102"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="105"/>
-      <c r="U37" s="43"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="57"/>
+      <c r="M37" s="57"/>
+      <c r="N37" s="57"/>
+      <c r="O37" s="57"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="61"/>
+      <c r="R37" s="40"/>
+      <c r="S37" s="40"/>
+      <c r="T37" s="49"/>
+      <c r="U37" s="46"/>
     </row>
     <row r="38" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C38" s="44">
+      <c r="C38" s="98">
         <v>8</v>
       </c>
-      <c r="D38" s="106" t="s">
+      <c r="D38" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="89"/>
-      <c r="G38" s="89"/>
-      <c r="H38" s="89"/>
-      <c r="I38" s="89"/>
-      <c r="J38" s="89"/>
-      <c r="K38" s="89"/>
-      <c r="L38" s="89"/>
-      <c r="M38" s="89"/>
-      <c r="N38" s="89"/>
-      <c r="O38" s="89"/>
-      <c r="P38" s="90"/>
-      <c r="Q38" s="47"/>
-      <c r="R38" s="100">
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="74"/>
+      <c r="Q38" s="104"/>
+      <c r="R38" s="38">
         <v>1</v>
       </c>
-      <c r="S38" s="100">
+      <c r="S38" s="38">
         <v>4</v>
       </c>
-      <c r="T38" s="103">
+      <c r="T38" s="47">
         <v>1</v>
       </c>
-      <c r="U38" s="41">
+      <c r="U38" s="44">
         <f>SUM(S38*T38*R38*R4)</f>
         <v>5.4</v>
       </c>
     </row>
     <row r="39" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C39" s="45"/>
-      <c r="D39" s="91"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="92"/>
-      <c r="H39" s="92"/>
-      <c r="I39" s="92"/>
-      <c r="J39" s="92"/>
-      <c r="K39" s="92"/>
-      <c r="L39" s="92"/>
-      <c r="M39" s="92"/>
-      <c r="N39" s="92"/>
-      <c r="O39" s="92"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="48"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="101"/>
-      <c r="T39" s="104"/>
-      <c r="U39" s="42"/>
+      <c r="C39" s="99"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="76"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+      <c r="K39" s="76"/>
+      <c r="L39" s="76"/>
+      <c r="M39" s="76"/>
+      <c r="N39" s="76"/>
+      <c r="O39" s="76"/>
+      <c r="P39" s="77"/>
+      <c r="Q39" s="105"/>
+      <c r="R39" s="39"/>
+      <c r="S39" s="39"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="45"/>
     </row>
     <row r="40" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C40" s="45"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="92"/>
-      <c r="H40" s="92"/>
-      <c r="I40" s="92"/>
-      <c r="J40" s="92"/>
-      <c r="K40" s="92"/>
-      <c r="L40" s="92"/>
-      <c r="M40" s="92"/>
-      <c r="N40" s="92"/>
-      <c r="O40" s="92"/>
-      <c r="P40" s="93"/>
-      <c r="Q40" s="48"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="104"/>
-      <c r="U40" s="42"/>
+      <c r="C40" s="99"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="76"/>
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="I40" s="76"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="76"/>
+      <c r="L40" s="76"/>
+      <c r="M40" s="76"/>
+      <c r="N40" s="76"/>
+      <c r="O40" s="76"/>
+      <c r="P40" s="77"/>
+      <c r="Q40" s="105"/>
+      <c r="R40" s="39"/>
+      <c r="S40" s="39"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="45"/>
     </row>
     <row r="41" spans="3:21" ht="79.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C41" s="46"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="95"/>
-      <c r="F41" s="95"/>
-      <c r="G41" s="95"/>
-      <c r="H41" s="95"/>
-      <c r="I41" s="95"/>
-      <c r="J41" s="95"/>
-      <c r="K41" s="95"/>
-      <c r="L41" s="95"/>
-      <c r="M41" s="95"/>
-      <c r="N41" s="95"/>
-      <c r="O41" s="95"/>
-      <c r="P41" s="96"/>
-      <c r="Q41" s="49"/>
-      <c r="R41" s="102"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="105"/>
-      <c r="U41" s="43"/>
+      <c r="C41" s="100"/>
+      <c r="D41" s="78"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
+      <c r="L41" s="79"/>
+      <c r="M41" s="79"/>
+      <c r="N41" s="79"/>
+      <c r="O41" s="79"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="106"/>
+      <c r="R41" s="40"/>
+      <c r="S41" s="40"/>
+      <c r="T41" s="49"/>
+      <c r="U41" s="46"/>
     </row>
     <row r="42" spans="3:21" ht="18.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C42" s="44">
+      <c r="C42" s="98">
         <v>9</v>
       </c>
-      <c r="D42" s="88" t="s">
+      <c r="D42" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="89"/>
-      <c r="G42" s="89"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="89"/>
-      <c r="J42" s="89"/>
-      <c r="K42" s="89"/>
-      <c r="L42" s="89"/>
-      <c r="M42" s="89"/>
-      <c r="N42" s="89"/>
-      <c r="O42" s="89"/>
-      <c r="P42" s="90"/>
-      <c r="Q42" s="97" t="s">
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="I42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="74"/>
+      <c r="Q42" s="95" t="s">
         <v>39</v>
       </c>
-      <c r="R42" s="100">
+      <c r="R42" s="38">
         <v>1</v>
       </c>
-      <c r="S42" s="100">
+      <c r="S42" s="38">
         <v>7</v>
       </c>
-      <c r="T42" s="103">
+      <c r="T42" s="47">
         <v>2</v>
       </c>
-      <c r="U42" s="41">
+      <c r="U42" s="44">
         <f>SUM(S42*T42*R42*R4)</f>
         <v>18.900000000000002</v>
       </c>
     </row>
     <row r="43" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C43" s="45"/>
-      <c r="D43" s="91"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="92"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="92"/>
-      <c r="J43" s="92"/>
-      <c r="K43" s="92"/>
-      <c r="L43" s="92"/>
-      <c r="M43" s="92"/>
-      <c r="N43" s="92"/>
-      <c r="O43" s="92"/>
-      <c r="P43" s="93"/>
-      <c r="Q43" s="98"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="104"/>
-      <c r="U43" s="42"/>
+      <c r="C43" s="99"/>
+      <c r="D43" s="75"/>
+      <c r="E43" s="76"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+      <c r="K43" s="76"/>
+      <c r="L43" s="76"/>
+      <c r="M43" s="76"/>
+      <c r="N43" s="76"/>
+      <c r="O43" s="76"/>
+      <c r="P43" s="77"/>
+      <c r="Q43" s="96"/>
+      <c r="R43" s="39"/>
+      <c r="S43" s="39"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="45"/>
     </row>
     <row r="44" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C44" s="45"/>
-      <c r="D44" s="91"/>
-      <c r="E44" s="92"/>
-      <c r="F44" s="92"/>
-      <c r="G44" s="92"/>
-      <c r="H44" s="92"/>
-      <c r="I44" s="92"/>
-      <c r="J44" s="92"/>
-      <c r="K44" s="92"/>
-      <c r="L44" s="92"/>
-      <c r="M44" s="92"/>
-      <c r="N44" s="92"/>
-      <c r="O44" s="92"/>
-      <c r="P44" s="93"/>
-      <c r="Q44" s="98"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="104"/>
-      <c r="U44" s="42"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="75"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="77"/>
+      <c r="Q44" s="96"/>
+      <c r="R44" s="39"/>
+      <c r="S44" s="39"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="45"/>
     </row>
     <row r="45" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C45" s="46"/>
-      <c r="D45" s="94"/>
-      <c r="E45" s="95"/>
-      <c r="F45" s="95"/>
-      <c r="G45" s="95"/>
-      <c r="H45" s="95"/>
-      <c r="I45" s="95"/>
-      <c r="J45" s="95"/>
-      <c r="K45" s="95"/>
-      <c r="L45" s="95"/>
-      <c r="M45" s="95"/>
-      <c r="N45" s="95"/>
-      <c r="O45" s="95"/>
-      <c r="P45" s="96"/>
-      <c r="Q45" s="99"/>
-      <c r="R45" s="102"/>
-      <c r="S45" s="102"/>
-      <c r="T45" s="105"/>
-      <c r="U45" s="43"/>
+      <c r="C45" s="100"/>
+      <c r="D45" s="78"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="79"/>
+      <c r="H45" s="79"/>
+      <c r="I45" s="79"/>
+      <c r="J45" s="79"/>
+      <c r="K45" s="79"/>
+      <c r="L45" s="79"/>
+      <c r="M45" s="79"/>
+      <c r="N45" s="79"/>
+      <c r="O45" s="79"/>
+      <c r="P45" s="80"/>
+      <c r="Q45" s="97"/>
+      <c r="R45" s="40"/>
+      <c r="S45" s="40"/>
+      <c r="T45" s="49"/>
+      <c r="U45" s="46"/>
     </row>
     <row r="46" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C46" s="44">
+      <c r="C46" s="98">
         <v>10</v>
       </c>
-      <c r="D46" s="106" t="s">
+      <c r="D46" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="E46" s="89"/>
-      <c r="F46" s="89"/>
-      <c r="G46" s="89"/>
-      <c r="H46" s="89"/>
-      <c r="I46" s="89"/>
-      <c r="J46" s="89"/>
-      <c r="K46" s="89"/>
-      <c r="L46" s="89"/>
-      <c r="M46" s="89"/>
-      <c r="N46" s="89"/>
-      <c r="O46" s="89"/>
-      <c r="P46" s="90"/>
-      <c r="Q46" s="100" t="s">
+      <c r="E46" s="73"/>
+      <c r="F46" s="73"/>
+      <c r="G46" s="73"/>
+      <c r="H46" s="73"/>
+      <c r="I46" s="73"/>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="74"/>
+      <c r="Q46" s="38" t="s">
         <v>27</v>
       </c>
-      <c r="R46" s="100">
+      <c r="R46" s="38">
         <v>2</v>
       </c>
-      <c r="S46" s="100">
+      <c r="S46" s="38">
         <v>6</v>
       </c>
-      <c r="T46" s="100">
+      <c r="T46" s="38">
         <v>2</v>
       </c>
-      <c r="U46" s="100">
+      <c r="U46" s="38">
         <f>SUM(S46*T46*R46*R4)</f>
         <v>32.400000000000006</v>
       </c>
     </row>
     <row r="47" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C47" s="45"/>
-      <c r="D47" s="91"/>
-      <c r="E47" s="92"/>
-      <c r="F47" s="92"/>
-      <c r="G47" s="92"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="92"/>
-      <c r="J47" s="92"/>
-      <c r="K47" s="92"/>
-      <c r="L47" s="92"/>
-      <c r="M47" s="92"/>
-      <c r="N47" s="92"/>
-      <c r="O47" s="92"/>
-      <c r="P47" s="93"/>
-      <c r="Q47" s="101"/>
-      <c r="R47" s="101"/>
-      <c r="S47" s="101"/>
-      <c r="T47" s="101"/>
-      <c r="U47" s="101"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="75"/>
+      <c r="E47" s="76"/>
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="I47" s="76"/>
+      <c r="J47" s="76"/>
+      <c r="K47" s="76"/>
+      <c r="L47" s="76"/>
+      <c r="M47" s="76"/>
+      <c r="N47" s="76"/>
+      <c r="O47" s="76"/>
+      <c r="P47" s="77"/>
+      <c r="Q47" s="39"/>
+      <c r="R47" s="39"/>
+      <c r="S47" s="39"/>
+      <c r="T47" s="39"/>
+      <c r="U47" s="39"/>
     </row>
     <row r="48" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C48" s="45"/>
-      <c r="D48" s="91"/>
-      <c r="E48" s="92"/>
-      <c r="F48" s="92"/>
-      <c r="G48" s="92"/>
-      <c r="H48" s="92"/>
-      <c r="I48" s="92"/>
-      <c r="J48" s="92"/>
-      <c r="K48" s="92"/>
-      <c r="L48" s="92"/>
-      <c r="M48" s="92"/>
-      <c r="N48" s="92"/>
-      <c r="O48" s="92"/>
-      <c r="P48" s="93"/>
-      <c r="Q48" s="101"/>
-      <c r="R48" s="101"/>
-      <c r="S48" s="101"/>
-      <c r="T48" s="101"/>
-      <c r="U48" s="101"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="75"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="77"/>
+      <c r="Q48" s="39"/>
+      <c r="R48" s="39"/>
+      <c r="S48" s="39"/>
+      <c r="T48" s="39"/>
+      <c r="U48" s="39"/>
     </row>
     <row r="49" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C49" s="45"/>
-      <c r="D49" s="91"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="93"/>
-      <c r="Q49" s="101"/>
-      <c r="R49" s="101"/>
-      <c r="S49" s="101"/>
-      <c r="T49" s="101"/>
-      <c r="U49" s="101"/>
+      <c r="C49" s="99"/>
+      <c r="D49" s="75"/>
+      <c r="E49" s="76"/>
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
+      <c r="J49" s="76"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="77"/>
+      <c r="Q49" s="39"/>
+      <c r="R49" s="39"/>
+      <c r="S49" s="39"/>
+      <c r="T49" s="39"/>
+      <c r="U49" s="39"/>
     </row>
     <row r="50" spans="3:21" ht="60" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C50" s="46"/>
-      <c r="D50" s="94"/>
-      <c r="E50" s="95"/>
-      <c r="F50" s="95"/>
-      <c r="G50" s="95"/>
-      <c r="H50" s="95"/>
-      <c r="I50" s="95"/>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95"/>
-      <c r="L50" s="95"/>
-      <c r="M50" s="95"/>
-      <c r="N50" s="95"/>
-      <c r="O50" s="95"/>
-      <c r="P50" s="96"/>
-      <c r="Q50" s="102"/>
-      <c r="R50" s="102"/>
-      <c r="S50" s="102"/>
-      <c r="T50" s="102"/>
-      <c r="U50" s="102"/>
+      <c r="C50" s="100"/>
+      <c r="D50" s="78"/>
+      <c r="E50" s="79"/>
+      <c r="F50" s="79"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="79"/>
+      <c r="I50" s="79"/>
+      <c r="J50" s="79"/>
+      <c r="K50" s="79"/>
+      <c r="L50" s="79"/>
+      <c r="M50" s="79"/>
+      <c r="N50" s="79"/>
+      <c r="O50" s="79"/>
+      <c r="P50" s="80"/>
+      <c r="Q50" s="40"/>
+      <c r="R50" s="40"/>
+      <c r="S50" s="40"/>
+      <c r="T50" s="40"/>
+      <c r="U50" s="40"/>
     </row>
     <row r="51" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C51" s="29"/>
-      <c r="D51" s="106" t="s">
+      <c r="D51" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="90"/>
-      <c r="Q51" s="100"/>
-      <c r="R51" s="100">
+      <c r="E51" s="73"/>
+      <c r="F51" s="73"/>
+      <c r="G51" s="73"/>
+      <c r="H51" s="73"/>
+      <c r="I51" s="73"/>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="74"/>
+      <c r="Q51" s="38"/>
+      <c r="R51" s="38">
         <v>1</v>
       </c>
-      <c r="S51" s="100">
+      <c r="S51" s="38">
         <v>3</v>
       </c>
-      <c r="T51" s="100">
+      <c r="T51" s="38">
         <v>1</v>
       </c>
-      <c r="U51" s="100">
+      <c r="U51" s="38">
         <f>SUM(S51*T51*R51*R4)</f>
         <v>4.0500000000000007</v>
       </c>
     </row>
     <row r="52" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C52" s="29"/>
-      <c r="D52" s="91"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="92"/>
-      <c r="G52" s="92"/>
-      <c r="H52" s="92"/>
-      <c r="I52" s="92"/>
-      <c r="J52" s="92"/>
-      <c r="K52" s="92"/>
-      <c r="L52" s="92"/>
-      <c r="M52" s="92"/>
-      <c r="N52" s="92"/>
-      <c r="O52" s="92"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="101"/>
-      <c r="R52" s="101"/>
-      <c r="S52" s="101"/>
-      <c r="T52" s="101"/>
-      <c r="U52" s="101"/>
+      <c r="D52" s="75"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="77"/>
+      <c r="Q52" s="39"/>
+      <c r="R52" s="39"/>
+      <c r="S52" s="39"/>
+      <c r="T52" s="39"/>
+      <c r="U52" s="39"/>
     </row>
     <row r="53" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C53" s="29">
         <v>11</v>
       </c>
-      <c r="D53" s="91"/>
-      <c r="E53" s="92"/>
-      <c r="F53" s="92"/>
-      <c r="G53" s="92"/>
-      <c r="H53" s="92"/>
-      <c r="I53" s="92"/>
-      <c r="J53" s="92"/>
-      <c r="K53" s="92"/>
-      <c r="L53" s="92"/>
-      <c r="M53" s="92"/>
-      <c r="N53" s="92"/>
-      <c r="O53" s="92"/>
-      <c r="P53" s="93"/>
-      <c r="Q53" s="101"/>
-      <c r="R53" s="101"/>
-      <c r="S53" s="101"/>
-      <c r="T53" s="101"/>
-      <c r="U53" s="101"/>
+      <c r="D53" s="75"/>
+      <c r="E53" s="76"/>
+      <c r="F53" s="76"/>
+      <c r="G53" s="76"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
+      <c r="J53" s="76"/>
+      <c r="K53" s="76"/>
+      <c r="L53" s="76"/>
+      <c r="M53" s="76"/>
+      <c r="N53" s="76"/>
+      <c r="O53" s="76"/>
+      <c r="P53" s="77"/>
+      <c r="Q53" s="39"/>
+      <c r="R53" s="39"/>
+      <c r="S53" s="39"/>
+      <c r="T53" s="39"/>
+      <c r="U53" s="39"/>
     </row>
     <row r="54" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C54" s="29"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="92"/>
-      <c r="F54" s="92"/>
-      <c r="G54" s="92"/>
-      <c r="H54" s="92"/>
-      <c r="I54" s="92"/>
-      <c r="J54" s="92"/>
-      <c r="K54" s="92"/>
-      <c r="L54" s="92"/>
-      <c r="M54" s="92"/>
-      <c r="N54" s="92"/>
-      <c r="O54" s="92"/>
-      <c r="P54" s="93"/>
-      <c r="Q54" s="101"/>
-      <c r="R54" s="101"/>
-      <c r="S54" s="101"/>
-      <c r="T54" s="101"/>
-      <c r="U54" s="101"/>
+      <c r="D54" s="75"/>
+      <c r="E54" s="76"/>
+      <c r="F54" s="76"/>
+      <c r="G54" s="76"/>
+      <c r="H54" s="76"/>
+      <c r="I54" s="76"/>
+      <c r="J54" s="76"/>
+      <c r="K54" s="76"/>
+      <c r="L54" s="76"/>
+      <c r="M54" s="76"/>
+      <c r="N54" s="76"/>
+      <c r="O54" s="76"/>
+      <c r="P54" s="77"/>
+      <c r="Q54" s="39"/>
+      <c r="R54" s="39"/>
+      <c r="S54" s="39"/>
+      <c r="T54" s="39"/>
+      <c r="U54" s="39"/>
     </row>
     <row r="55" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C55" s="29"/>
-      <c r="D55" s="94"/>
-      <c r="E55" s="95"/>
-      <c r="F55" s="95"/>
-      <c r="G55" s="95"/>
-      <c r="H55" s="95"/>
-      <c r="I55" s="95"/>
-      <c r="J55" s="95"/>
-      <c r="K55" s="95"/>
-      <c r="L55" s="95"/>
-      <c r="M55" s="95"/>
-      <c r="N55" s="95"/>
-      <c r="O55" s="95"/>
-      <c r="P55" s="96"/>
-      <c r="Q55" s="102"/>
-      <c r="R55" s="102"/>
-      <c r="S55" s="102"/>
-      <c r="T55" s="102"/>
-      <c r="U55" s="102"/>
+      <c r="D55" s="78"/>
+      <c r="E55" s="79"/>
+      <c r="F55" s="79"/>
+      <c r="G55" s="79"/>
+      <c r="H55" s="79"/>
+      <c r="I55" s="79"/>
+      <c r="J55" s="79"/>
+      <c r="K55" s="79"/>
+      <c r="L55" s="79"/>
+      <c r="M55" s="79"/>
+      <c r="N55" s="79"/>
+      <c r="O55" s="79"/>
+      <c r="P55" s="80"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
     </row>
     <row r="56" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C56" s="44">
+      <c r="C56" s="98">
         <v>12</v>
       </c>
-      <c r="D56" s="106" t="s">
+      <c r="D56" s="72" t="s">
         <v>21</v>
       </c>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="90"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100">
+      <c r="E56" s="73"/>
+      <c r="F56" s="73"/>
+      <c r="G56" s="73"/>
+      <c r="H56" s="73"/>
+      <c r="I56" s="73"/>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="74"/>
+      <c r="Q56" s="38"/>
+      <c r="R56" s="38">
         <v>1</v>
       </c>
-      <c r="S56" s="100">
+      <c r="S56" s="38">
         <v>10</v>
       </c>
-      <c r="T56" s="100">
+      <c r="T56" s="38">
         <v>1</v>
       </c>
-      <c r="U56" s="41">
+      <c r="U56" s="44">
         <f>SUM(S56*T56*R56*R4)</f>
         <v>13.5</v>
       </c>
     </row>
     <row r="57" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C57" s="45"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="92"/>
-      <c r="F57" s="92"/>
-      <c r="G57" s="92"/>
-      <c r="H57" s="92"/>
-      <c r="I57" s="92"/>
-      <c r="J57" s="92"/>
-      <c r="K57" s="92"/>
-      <c r="L57" s="92"/>
-      <c r="M57" s="92"/>
-      <c r="N57" s="92"/>
-      <c r="O57" s="92"/>
-      <c r="P57" s="93"/>
-      <c r="Q57" s="101"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="101"/>
-      <c r="T57" s="101"/>
-      <c r="U57" s="42"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="76"/>
+      <c r="F57" s="76"/>
+      <c r="G57" s="76"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="76"/>
+      <c r="J57" s="76"/>
+      <c r="K57" s="76"/>
+      <c r="L57" s="76"/>
+      <c r="M57" s="76"/>
+      <c r="N57" s="76"/>
+      <c r="O57" s="76"/>
+      <c r="P57" s="77"/>
+      <c r="Q57" s="39"/>
+      <c r="R57" s="39"/>
+      <c r="S57" s="39"/>
+      <c r="T57" s="39"/>
+      <c r="U57" s="45"/>
     </row>
     <row r="58" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C58" s="45"/>
-      <c r="D58" s="91"/>
-      <c r="E58" s="92"/>
-      <c r="F58" s="92"/>
-      <c r="G58" s="92"/>
-      <c r="H58" s="92"/>
-      <c r="I58" s="92"/>
-      <c r="J58" s="92"/>
-      <c r="K58" s="92"/>
-      <c r="L58" s="92"/>
-      <c r="M58" s="92"/>
-      <c r="N58" s="92"/>
-      <c r="O58" s="92"/>
-      <c r="P58" s="93"/>
-      <c r="Q58" s="101"/>
-      <c r="R58" s="101"/>
-      <c r="S58" s="101"/>
-      <c r="T58" s="101"/>
-      <c r="U58" s="42"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="75"/>
+      <c r="E58" s="76"/>
+      <c r="F58" s="76"/>
+      <c r="G58" s="76"/>
+      <c r="H58" s="76"/>
+      <c r="I58" s="76"/>
+      <c r="J58" s="76"/>
+      <c r="K58" s="76"/>
+      <c r="L58" s="76"/>
+      <c r="M58" s="76"/>
+      <c r="N58" s="76"/>
+      <c r="O58" s="76"/>
+      <c r="P58" s="77"/>
+      <c r="Q58" s="39"/>
+      <c r="R58" s="39"/>
+      <c r="S58" s="39"/>
+      <c r="T58" s="39"/>
+      <c r="U58" s="45"/>
     </row>
     <row r="59" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C59" s="45"/>
-      <c r="D59" s="91"/>
-      <c r="E59" s="92"/>
-      <c r="F59" s="92"/>
-      <c r="G59" s="92"/>
-      <c r="H59" s="92"/>
-      <c r="I59" s="92"/>
-      <c r="J59" s="92"/>
-      <c r="K59" s="92"/>
-      <c r="L59" s="92"/>
-      <c r="M59" s="92"/>
-      <c r="N59" s="92"/>
-      <c r="O59" s="92"/>
-      <c r="P59" s="93"/>
-      <c r="Q59" s="101"/>
-      <c r="R59" s="101"/>
-      <c r="S59" s="101"/>
-      <c r="T59" s="101"/>
-      <c r="U59" s="42"/>
+      <c r="C59" s="99"/>
+      <c r="D59" s="75"/>
+      <c r="E59" s="76"/>
+      <c r="F59" s="76"/>
+      <c r="G59" s="76"/>
+      <c r="H59" s="76"/>
+      <c r="I59" s="76"/>
+      <c r="J59" s="76"/>
+      <c r="K59" s="76"/>
+      <c r="L59" s="76"/>
+      <c r="M59" s="76"/>
+      <c r="N59" s="76"/>
+      <c r="O59" s="76"/>
+      <c r="P59" s="77"/>
+      <c r="Q59" s="39"/>
+      <c r="R59" s="39"/>
+      <c r="S59" s="39"/>
+      <c r="T59" s="39"/>
+      <c r="U59" s="45"/>
     </row>
     <row r="60" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C60" s="46"/>
-      <c r="D60" s="94"/>
-      <c r="E60" s="95"/>
-      <c r="F60" s="95"/>
-      <c r="G60" s="95"/>
-      <c r="H60" s="95"/>
-      <c r="I60" s="95"/>
-      <c r="J60" s="95"/>
-      <c r="K60" s="95"/>
-      <c r="L60" s="95"/>
-      <c r="M60" s="95"/>
-      <c r="N60" s="95"/>
-      <c r="O60" s="95"/>
-      <c r="P60" s="96"/>
-      <c r="Q60" s="102"/>
-      <c r="R60" s="102"/>
-      <c r="S60" s="102"/>
-      <c r="T60" s="102"/>
-      <c r="U60" s="43"/>
+      <c r="C60" s="100"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="79"/>
+      <c r="H60" s="79"/>
+      <c r="I60" s="79"/>
+      <c r="J60" s="79"/>
+      <c r="K60" s="79"/>
+      <c r="L60" s="79"/>
+      <c r="M60" s="79"/>
+      <c r="N60" s="79"/>
+      <c r="O60" s="79"/>
+      <c r="P60" s="80"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="46"/>
     </row>
     <row r="61" spans="3:21" ht="31.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C61" s="15"/>
-      <c r="D61" s="121" t="s">
+      <c r="D61" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="E61" s="121"/>
-      <c r="F61" s="121"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="121"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="121"/>
-      <c r="K61" s="121"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="121"/>
-      <c r="N61" s="121"/>
-      <c r="O61" s="121"/>
-      <c r="P61" s="121"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
+      <c r="G61" s="71"/>
+      <c r="H61" s="71"/>
+      <c r="I61" s="71"/>
+      <c r="J61" s="71"/>
+      <c r="K61" s="71"/>
+      <c r="L61" s="71"/>
+      <c r="M61" s="71"/>
+      <c r="N61" s="71"/>
+      <c r="O61" s="71"/>
+      <c r="P61" s="71"/>
       <c r="Q61" s="13"/>
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
@@ -4072,21 +4072,21 @@
     </row>
     <row r="62" spans="3:21" ht="28.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C62" s="15"/>
-      <c r="D62" s="85" t="s">
+      <c r="D62" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="85"/>
-      <c r="H62" s="85"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="85"/>
+      <c r="E62" s="91"/>
+      <c r="F62" s="91"/>
+      <c r="G62" s="91"/>
+      <c r="H62" s="91"/>
+      <c r="I62" s="91"/>
+      <c r="J62" s="91"/>
+      <c r="K62" s="91"/>
+      <c r="L62" s="91"/>
+      <c r="M62" s="91"/>
+      <c r="N62" s="91"/>
+      <c r="O62" s="91"/>
+      <c r="P62" s="91"/>
       <c r="Q62" s="27"/>
       <c r="R62" s="27"/>
       <c r="S62" s="27"/>
@@ -4097,21 +4097,21 @@
       </c>
     </row>
     <row r="63" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C63" s="83"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
-      <c r="J63" s="84"/>
-      <c r="K63" s="84"/>
-      <c r="L63" s="84"/>
-      <c r="M63" s="84"/>
-      <c r="N63" s="84"/>
-      <c r="O63" s="84"/>
-      <c r="P63" s="84"/>
-      <c r="Q63" s="84"/>
+      <c r="C63" s="89"/>
+      <c r="D63" s="90"/>
+      <c r="E63" s="90"/>
+      <c r="F63" s="90"/>
+      <c r="G63" s="90"/>
+      <c r="H63" s="90"/>
+      <c r="I63" s="90"/>
+      <c r="J63" s="90"/>
+      <c r="K63" s="90"/>
+      <c r="L63" s="90"/>
+      <c r="M63" s="90"/>
+      <c r="N63" s="90"/>
+      <c r="O63" s="90"/>
+      <c r="P63" s="90"/>
+      <c r="Q63" s="90"/>
       <c r="R63" s="14"/>
       <c r="S63" s="14"/>
       <c r="T63" s="19"/>
@@ -4141,162 +4141,162 @@
       <c r="U64" s="6"/>
     </row>
     <row r="65" spans="3:21" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="87"/>
-      <c r="E65" s="87"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="H65" s="87"/>
-      <c r="I65" s="87"/>
-      <c r="J65" s="87"/>
-      <c r="K65" s="87"/>
-      <c r="L65" s="87"/>
-      <c r="M65" s="87"/>
-      <c r="N65" s="87"/>
-      <c r="O65" s="87"/>
-      <c r="P65" s="87"/>
-      <c r="Q65" s="87"/>
-      <c r="R65" s="87"/>
-      <c r="S65" s="87"/>
-      <c r="T65" s="87"/>
+      <c r="D65" s="93"/>
+      <c r="E65" s="93"/>
+      <c r="F65" s="93"/>
+      <c r="G65" s="93"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="93"/>
+      <c r="J65" s="93"/>
+      <c r="K65" s="93"/>
+      <c r="L65" s="93"/>
+      <c r="M65" s="93"/>
+      <c r="N65" s="93"/>
+      <c r="O65" s="93"/>
+      <c r="P65" s="93"/>
+      <c r="Q65" s="93"/>
+      <c r="R65" s="93"/>
+      <c r="S65" s="93"/>
+      <c r="T65" s="93"/>
       <c r="U65" s="20"/>
     </row>
     <row r="66" spans="3:21" ht="54.75" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C66" s="41"/>
-      <c r="D66" s="59" t="s">
+      <c r="C66" s="44"/>
+      <c r="D66" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="E66" s="60"/>
-      <c r="F66" s="60"/>
-      <c r="G66" s="60"/>
-      <c r="H66" s="60"/>
-      <c r="I66" s="60"/>
-      <c r="J66" s="60"/>
-      <c r="K66" s="60"/>
-      <c r="L66" s="60"/>
-      <c r="M66" s="60"/>
-      <c r="N66" s="60"/>
-      <c r="O66" s="60"/>
-      <c r="P66" s="61"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41" t="s">
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="44"/>
+      <c r="R66" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="S66" s="41">
+      <c r="S66" s="44">
         <f>SUM(R2*U2 + R2*U2*R3)</f>
         <v>6.75</v>
       </c>
-      <c r="T66" s="122">
+      <c r="T66" s="41">
         <v>10</v>
       </c>
-      <c r="U66" s="41">
+      <c r="U66" s="44">
         <f>SUM(S66*T66)</f>
         <v>67.5</v>
       </c>
     </row>
     <row r="67" spans="3:21" ht="24" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C67" s="42"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="63"/>
-      <c r="F67" s="63"/>
-      <c r="G67" s="63"/>
-      <c r="H67" s="63"/>
-      <c r="I67" s="63"/>
-      <c r="J67" s="63"/>
-      <c r="K67" s="63"/>
-      <c r="L67" s="63"/>
-      <c r="M67" s="63"/>
-      <c r="N67" s="63"/>
-      <c r="O67" s="63"/>
-      <c r="P67" s="64"/>
-      <c r="Q67" s="42"/>
-      <c r="R67" s="42"/>
-      <c r="S67" s="42"/>
-      <c r="T67" s="123"/>
-      <c r="U67" s="42"/>
+      <c r="C67" s="45"/>
+      <c r="D67" s="53"/>
+      <c r="E67" s="54"/>
+      <c r="F67" s="54"/>
+      <c r="G67" s="54"/>
+      <c r="H67" s="54"/>
+      <c r="I67" s="54"/>
+      <c r="J67" s="54"/>
+      <c r="K67" s="54"/>
+      <c r="L67" s="54"/>
+      <c r="M67" s="54"/>
+      <c r="N67" s="54"/>
+      <c r="O67" s="54"/>
+      <c r="P67" s="55"/>
+      <c r="Q67" s="45"/>
+      <c r="R67" s="45"/>
+      <c r="S67" s="45"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="45"/>
     </row>
     <row r="68" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C68" s="42"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="63"/>
-      <c r="F68" s="63"/>
-      <c r="G68" s="63"/>
-      <c r="H68" s="63"/>
-      <c r="I68" s="63"/>
-      <c r="J68" s="63"/>
-      <c r="K68" s="63"/>
-      <c r="L68" s="63"/>
-      <c r="M68" s="63"/>
-      <c r="N68" s="63"/>
-      <c r="O68" s="63"/>
-      <c r="P68" s="64"/>
-      <c r="Q68" s="42"/>
-      <c r="R68" s="42"/>
-      <c r="S68" s="42"/>
-      <c r="T68" s="123"/>
-      <c r="U68" s="42"/>
+      <c r="C68" s="45"/>
+      <c r="D68" s="53"/>
+      <c r="E68" s="54"/>
+      <c r="F68" s="54"/>
+      <c r="G68" s="54"/>
+      <c r="H68" s="54"/>
+      <c r="I68" s="54"/>
+      <c r="J68" s="54"/>
+      <c r="K68" s="54"/>
+      <c r="L68" s="54"/>
+      <c r="M68" s="54"/>
+      <c r="N68" s="54"/>
+      <c r="O68" s="54"/>
+      <c r="P68" s="55"/>
+      <c r="Q68" s="45"/>
+      <c r="R68" s="45"/>
+      <c r="S68" s="45"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="45"/>
     </row>
     <row r="69" spans="3:21" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C69" s="42"/>
-      <c r="D69" s="62"/>
-      <c r="E69" s="63"/>
-      <c r="F69" s="63"/>
-      <c r="G69" s="63"/>
-      <c r="H69" s="63"/>
-      <c r="I69" s="63"/>
-      <c r="J69" s="63"/>
-      <c r="K69" s="63"/>
-      <c r="L69" s="63"/>
-      <c r="M69" s="63"/>
-      <c r="N69" s="63"/>
-      <c r="O69" s="63"/>
-      <c r="P69" s="64"/>
-      <c r="Q69" s="42"/>
-      <c r="R69" s="42"/>
-      <c r="S69" s="42"/>
-      <c r="T69" s="123"/>
-      <c r="U69" s="42"/>
+      <c r="C69" s="45"/>
+      <c r="D69" s="53"/>
+      <c r="E69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="54"/>
+      <c r="H69" s="54"/>
+      <c r="I69" s="54"/>
+      <c r="J69" s="54"/>
+      <c r="K69" s="54"/>
+      <c r="L69" s="54"/>
+      <c r="M69" s="54"/>
+      <c r="N69" s="54"/>
+      <c r="O69" s="54"/>
+      <c r="P69" s="55"/>
+      <c r="Q69" s="45"/>
+      <c r="R69" s="45"/>
+      <c r="S69" s="45"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="45"/>
     </row>
     <row r="70" spans="3:21" ht="70.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C70" s="43"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="66"/>
-      <c r="F70" s="66"/>
-      <c r="G70" s="66"/>
-      <c r="H70" s="66"/>
-      <c r="I70" s="66"/>
-      <c r="J70" s="66"/>
-      <c r="K70" s="66"/>
-      <c r="L70" s="66"/>
-      <c r="M70" s="66"/>
-      <c r="N70" s="66"/>
-      <c r="O70" s="66"/>
-      <c r="P70" s="67"/>
-      <c r="Q70" s="43"/>
-      <c r="R70" s="43"/>
-      <c r="S70" s="43"/>
-      <c r="T70" s="124"/>
-      <c r="U70" s="43"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="57"/>
+      <c r="F70" s="57"/>
+      <c r="G70" s="57"/>
+      <c r="H70" s="57"/>
+      <c r="I70" s="57"/>
+      <c r="J70" s="57"/>
+      <c r="K70" s="57"/>
+      <c r="L70" s="57"/>
+      <c r="M70" s="57"/>
+      <c r="N70" s="57"/>
+      <c r="O70" s="57"/>
+      <c r="P70" s="58"/>
+      <c r="Q70" s="46"/>
+      <c r="R70" s="46"/>
+      <c r="S70" s="46"/>
+      <c r="T70" s="43"/>
+      <c r="U70" s="46"/>
     </row>
     <row r="71" spans="3:21" ht="40.5" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C71" s="12"/>
-      <c r="D71" s="80" t="s">
+      <c r="D71" s="86" t="s">
         <v>9</v>
       </c>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="80"/>
-      <c r="I71" s="80"/>
-      <c r="J71" s="80"/>
-      <c r="K71" s="80"/>
-      <c r="L71" s="80"/>
-      <c r="M71" s="80"/>
-      <c r="N71" s="80"/>
-      <c r="O71" s="80"/>
-      <c r="P71" s="80"/>
+      <c r="E71" s="86"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="86"/>
+      <c r="H71" s="86"/>
+      <c r="I71" s="86"/>
+      <c r="J71" s="86"/>
+      <c r="K71" s="86"/>
+      <c r="L71" s="86"/>
+      <c r="M71" s="86"/>
+      <c r="N71" s="86"/>
+      <c r="O71" s="86"/>
+      <c r="P71" s="86"/>
       <c r="Q71" s="12"/>
       <c r="R71" s="12" t="s">
         <v>7</v>
@@ -4315,21 +4315,21 @@
     </row>
     <row r="72" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C72" s="12"/>
-      <c r="D72" s="81" t="s">
+      <c r="D72" s="87" t="s">
         <v>24</v>
       </c>
-      <c r="E72" s="81"/>
-      <c r="F72" s="81"/>
-      <c r="G72" s="81"/>
-      <c r="H72" s="81"/>
-      <c r="I72" s="81"/>
-      <c r="J72" s="81"/>
-      <c r="K72" s="81"/>
-      <c r="L72" s="81"/>
-      <c r="M72" s="81"/>
-      <c r="N72" s="81"/>
-      <c r="O72" s="81"/>
-      <c r="P72" s="81"/>
+      <c r="E72" s="87"/>
+      <c r="F72" s="87"/>
+      <c r="G72" s="87"/>
+      <c r="H72" s="87"/>
+      <c r="I72" s="87"/>
+      <c r="J72" s="87"/>
+      <c r="K72" s="87"/>
+      <c r="L72" s="87"/>
+      <c r="M72" s="87"/>
+      <c r="N72" s="87"/>
+      <c r="O72" s="87"/>
+      <c r="P72" s="87"/>
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
       <c r="S72" s="12">
@@ -4344,21 +4344,21 @@
     </row>
     <row r="73" spans="3:21" ht="26.25" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C73" s="27"/>
-      <c r="D73" s="82" t="s">
+      <c r="D73" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="E73" s="82"/>
-      <c r="F73" s="82"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="82"/>
-      <c r="J73" s="82"/>
-      <c r="K73" s="82"/>
-      <c r="L73" s="82"/>
-      <c r="M73" s="82"/>
-      <c r="N73" s="82"/>
-      <c r="O73" s="82"/>
-      <c r="P73" s="82"/>
+      <c r="E73" s="88"/>
+      <c r="F73" s="88"/>
+      <c r="G73" s="88"/>
+      <c r="H73" s="88"/>
+      <c r="I73" s="88"/>
+      <c r="J73" s="88"/>
+      <c r="K73" s="88"/>
+      <c r="L73" s="88"/>
+      <c r="M73" s="88"/>
+      <c r="N73" s="88"/>
+      <c r="O73" s="88"/>
+      <c r="P73" s="88"/>
       <c r="Q73" s="27"/>
       <c r="R73" s="27"/>
       <c r="S73" s="27"/>
@@ -4369,21 +4369,21 @@
       </c>
     </row>
     <row r="74" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="C74" s="83"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
-      <c r="J74" s="84"/>
-      <c r="K74" s="84"/>
-      <c r="L74" s="84"/>
-      <c r="M74" s="84"/>
-      <c r="N74" s="84"/>
-      <c r="O74" s="84"/>
-      <c r="P74" s="84"/>
-      <c r="Q74" s="84"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
+      <c r="J74" s="90"/>
+      <c r="K74" s="90"/>
+      <c r="L74" s="90"/>
+      <c r="M74" s="90"/>
+      <c r="N74" s="90"/>
+      <c r="O74" s="90"/>
+      <c r="P74" s="90"/>
+      <c r="Q74" s="90"/>
       <c r="R74" s="14"/>
       <c r="S74" s="14"/>
       <c r="T74" s="13"/>
@@ -4412,19 +4412,19 @@
     </row>
     <row r="76" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C76" s="12"/>
-      <c r="D76" s="108"/>
-      <c r="E76" s="108"/>
-      <c r="F76" s="108"/>
-      <c r="G76" s="108"/>
-      <c r="H76" s="108"/>
-      <c r="I76" s="108"/>
-      <c r="J76" s="108"/>
-      <c r="K76" s="108"/>
-      <c r="L76" s="108"/>
-      <c r="M76" s="108"/>
-      <c r="N76" s="108"/>
-      <c r="O76" s="108"/>
-      <c r="P76" s="108"/>
+      <c r="D76" s="85"/>
+      <c r="E76" s="85"/>
+      <c r="F76" s="85"/>
+      <c r="G76" s="85"/>
+      <c r="H76" s="85"/>
+      <c r="I76" s="85"/>
+      <c r="J76" s="85"/>
+      <c r="K76" s="85"/>
+      <c r="L76" s="85"/>
+      <c r="M76" s="85"/>
+      <c r="N76" s="85"/>
+      <c r="O76" s="85"/>
+      <c r="P76" s="85"/>
       <c r="Q76" s="13"/>
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
@@ -4433,19 +4433,19 @@
     </row>
     <row r="77" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C77" s="12"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="108"/>
-      <c r="L77" s="108"/>
-      <c r="M77" s="108"/>
-      <c r="N77" s="108"/>
-      <c r="O77" s="108"/>
-      <c r="P77" s="108"/>
+      <c r="D77" s="85"/>
+      <c r="E77" s="85"/>
+      <c r="F77" s="85"/>
+      <c r="G77" s="85"/>
+      <c r="H77" s="85"/>
+      <c r="I77" s="85"/>
+      <c r="J77" s="85"/>
+      <c r="K77" s="85"/>
+      <c r="L77" s="85"/>
+      <c r="M77" s="85"/>
+      <c r="N77" s="85"/>
+      <c r="O77" s="85"/>
+      <c r="P77" s="85"/>
       <c r="Q77" s="13"/>
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
@@ -4454,19 +4454,19 @@
     </row>
     <row r="78" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C78" s="12"/>
-      <c r="D78" s="107"/>
-      <c r="E78" s="107"/>
-      <c r="F78" s="107"/>
-      <c r="G78" s="107"/>
-      <c r="H78" s="107"/>
-      <c r="I78" s="107"/>
-      <c r="J78" s="107"/>
-      <c r="K78" s="107"/>
-      <c r="L78" s="107"/>
-      <c r="M78" s="107"/>
-      <c r="N78" s="107"/>
-      <c r="O78" s="107"/>
-      <c r="P78" s="107"/>
+      <c r="D78" s="84"/>
+      <c r="E78" s="84"/>
+      <c r="F78" s="84"/>
+      <c r="G78" s="84"/>
+      <c r="H78" s="84"/>
+      <c r="I78" s="84"/>
+      <c r="J78" s="84"/>
+      <c r="K78" s="84"/>
+      <c r="L78" s="84"/>
+      <c r="M78" s="84"/>
+      <c r="N78" s="84"/>
+      <c r="O78" s="84"/>
+      <c r="P78" s="84"/>
       <c r="Q78" s="13"/>
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
@@ -4475,19 +4475,19 @@
     </row>
     <row r="79" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C79" s="12"/>
-      <c r="D79" s="107"/>
-      <c r="E79" s="107"/>
-      <c r="F79" s="107"/>
-      <c r="G79" s="107"/>
-      <c r="H79" s="107"/>
-      <c r="I79" s="107"/>
-      <c r="J79" s="107"/>
-      <c r="K79" s="107"/>
-      <c r="L79" s="107"/>
-      <c r="M79" s="107"/>
-      <c r="N79" s="107"/>
-      <c r="O79" s="107"/>
-      <c r="P79" s="107"/>
+      <c r="D79" s="84"/>
+      <c r="E79" s="84"/>
+      <c r="F79" s="84"/>
+      <c r="G79" s="84"/>
+      <c r="H79" s="84"/>
+      <c r="I79" s="84"/>
+      <c r="J79" s="84"/>
+      <c r="K79" s="84"/>
+      <c r="L79" s="84"/>
+      <c r="M79" s="84"/>
+      <c r="N79" s="84"/>
+      <c r="O79" s="84"/>
+      <c r="P79" s="84"/>
       <c r="Q79" s="13"/>
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
@@ -4496,19 +4496,19 @@
     </row>
     <row r="80" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C80" s="12"/>
-      <c r="D80" s="107"/>
-      <c r="E80" s="107"/>
-      <c r="F80" s="107"/>
-      <c r="G80" s="107"/>
-      <c r="H80" s="107"/>
-      <c r="I80" s="107"/>
-      <c r="J80" s="107"/>
-      <c r="K80" s="107"/>
-      <c r="L80" s="107"/>
-      <c r="M80" s="107"/>
-      <c r="N80" s="107"/>
-      <c r="O80" s="107"/>
-      <c r="P80" s="107"/>
+      <c r="D80" s="84"/>
+      <c r="E80" s="84"/>
+      <c r="F80" s="84"/>
+      <c r="G80" s="84"/>
+      <c r="H80" s="84"/>
+      <c r="I80" s="84"/>
+      <c r="J80" s="84"/>
+      <c r="K80" s="84"/>
+      <c r="L80" s="84"/>
+      <c r="M80" s="84"/>
+      <c r="N80" s="84"/>
+      <c r="O80" s="84"/>
+      <c r="P80" s="84"/>
       <c r="Q80" s="13"/>
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
@@ -4517,19 +4517,19 @@
     </row>
     <row r="81" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C81" s="12"/>
-      <c r="D81" s="107"/>
-      <c r="E81" s="107"/>
-      <c r="F81" s="107"/>
-      <c r="G81" s="107"/>
-      <c r="H81" s="107"/>
-      <c r="I81" s="107"/>
-      <c r="J81" s="107"/>
-      <c r="K81" s="107"/>
-      <c r="L81" s="107"/>
-      <c r="M81" s="107"/>
-      <c r="N81" s="107"/>
-      <c r="O81" s="107"/>
-      <c r="P81" s="107"/>
+      <c r="D81" s="84"/>
+      <c r="E81" s="84"/>
+      <c r="F81" s="84"/>
+      <c r="G81" s="84"/>
+      <c r="H81" s="84"/>
+      <c r="I81" s="84"/>
+      <c r="J81" s="84"/>
+      <c r="K81" s="84"/>
+      <c r="L81" s="84"/>
+      <c r="M81" s="84"/>
+      <c r="N81" s="84"/>
+      <c r="O81" s="84"/>
+      <c r="P81" s="84"/>
       <c r="Q81" s="13"/>
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
@@ -4538,19 +4538,19 @@
     </row>
     <row r="82" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C82" s="12"/>
-      <c r="D82" s="107"/>
-      <c r="E82" s="107"/>
-      <c r="F82" s="107"/>
-      <c r="G82" s="107"/>
-      <c r="H82" s="107"/>
-      <c r="I82" s="107"/>
-      <c r="J82" s="107"/>
-      <c r="K82" s="107"/>
-      <c r="L82" s="107"/>
-      <c r="M82" s="107"/>
-      <c r="N82" s="107"/>
-      <c r="O82" s="107"/>
-      <c r="P82" s="107"/>
+      <c r="D82" s="84"/>
+      <c r="E82" s="84"/>
+      <c r="F82" s="84"/>
+      <c r="G82" s="84"/>
+      <c r="H82" s="84"/>
+      <c r="I82" s="84"/>
+      <c r="J82" s="84"/>
+      <c r="K82" s="84"/>
+      <c r="L82" s="84"/>
+      <c r="M82" s="84"/>
+      <c r="N82" s="84"/>
+      <c r="O82" s="84"/>
+      <c r="P82" s="84"/>
       <c r="Q82" s="13"/>
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
@@ -4559,19 +4559,19 @@
     </row>
     <row r="83" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C83" s="12"/>
-      <c r="D83" s="107"/>
-      <c r="E83" s="107"/>
-      <c r="F83" s="107"/>
-      <c r="G83" s="107"/>
-      <c r="H83" s="107"/>
-      <c r="I83" s="107"/>
-      <c r="J83" s="107"/>
-      <c r="K83" s="107"/>
-      <c r="L83" s="107"/>
-      <c r="M83" s="107"/>
-      <c r="N83" s="107"/>
-      <c r="O83" s="107"/>
-      <c r="P83" s="107"/>
+      <c r="D83" s="84"/>
+      <c r="E83" s="84"/>
+      <c r="F83" s="84"/>
+      <c r="G83" s="84"/>
+      <c r="H83" s="84"/>
+      <c r="I83" s="84"/>
+      <c r="J83" s="84"/>
+      <c r="K83" s="84"/>
+      <c r="L83" s="84"/>
+      <c r="M83" s="84"/>
+      <c r="N83" s="84"/>
+      <c r="O83" s="84"/>
+      <c r="P83" s="84"/>
       <c r="Q83" s="13"/>
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
@@ -4580,19 +4580,19 @@
     </row>
     <row r="84" spans="3:21" ht="18" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="C84" s="12"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="108"/>
-      <c r="L84" s="108"/>
-      <c r="M84" s="108"/>
-      <c r="N84" s="108"/>
-      <c r="O84" s="108"/>
-      <c r="P84" s="108"/>
+      <c r="D84" s="85"/>
+      <c r="E84" s="85"/>
+      <c r="F84" s="85"/>
+      <c r="G84" s="85"/>
+      <c r="H84" s="85"/>
+      <c r="I84" s="85"/>
+      <c r="J84" s="85"/>
+      <c r="K84" s="85"/>
+      <c r="L84" s="85"/>
+      <c r="M84" s="85"/>
+      <c r="N84" s="85"/>
+      <c r="O84" s="85"/>
+      <c r="P84" s="85"/>
       <c r="Q84" s="13"/>
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
@@ -4601,69 +4601,23 @@
     </row>
   </sheetData>
   <mergeCells count="104">
-    <mergeCell ref="U46:U50"/>
-    <mergeCell ref="T66:T70"/>
-    <mergeCell ref="U11:U13"/>
-    <mergeCell ref="U21:U25"/>
-    <mergeCell ref="U26:U29"/>
-    <mergeCell ref="U30:U33"/>
-    <mergeCell ref="U66:U70"/>
-    <mergeCell ref="T56:T60"/>
-    <mergeCell ref="U56:U60"/>
-    <mergeCell ref="T30:T33"/>
-    <mergeCell ref="U42:U45"/>
-    <mergeCell ref="U34:U37"/>
-    <mergeCell ref="U38:U41"/>
-    <mergeCell ref="T34:T37"/>
-    <mergeCell ref="T38:T41"/>
-    <mergeCell ref="U51:U55"/>
-    <mergeCell ref="U15:U19"/>
-    <mergeCell ref="T51:T55"/>
-    <mergeCell ref="T46:T50"/>
-    <mergeCell ref="R30:R33"/>
-    <mergeCell ref="R34:R37"/>
-    <mergeCell ref="D30:P33"/>
-    <mergeCell ref="C30:C33"/>
-    <mergeCell ref="Q30:Q33"/>
-    <mergeCell ref="S30:S33"/>
-    <mergeCell ref="D26:P29"/>
-    <mergeCell ref="C26:C29"/>
-    <mergeCell ref="D66:P70"/>
-    <mergeCell ref="D61:P61"/>
-    <mergeCell ref="S38:S41"/>
-    <mergeCell ref="R38:R41"/>
-    <mergeCell ref="D38:P41"/>
-    <mergeCell ref="D34:P37"/>
-    <mergeCell ref="Q34:Q37"/>
-    <mergeCell ref="S34:S37"/>
-    <mergeCell ref="D51:P55"/>
-    <mergeCell ref="Q51:Q55"/>
-    <mergeCell ref="R51:R55"/>
-    <mergeCell ref="S51:S55"/>
-    <mergeCell ref="Q46:Q50"/>
-    <mergeCell ref="R46:R50"/>
-    <mergeCell ref="S46:S50"/>
-    <mergeCell ref="S11:S13"/>
-    <mergeCell ref="R11:R13"/>
-    <mergeCell ref="S26:S29"/>
-    <mergeCell ref="T26:T29"/>
-    <mergeCell ref="S21:S25"/>
-    <mergeCell ref="T21:T25"/>
-    <mergeCell ref="T11:T13"/>
-    <mergeCell ref="R15:R19"/>
-    <mergeCell ref="S15:S19"/>
-    <mergeCell ref="T15:T19"/>
-    <mergeCell ref="R21:R25"/>
-    <mergeCell ref="R26:R29"/>
-    <mergeCell ref="D80:P80"/>
-    <mergeCell ref="D81:P81"/>
-    <mergeCell ref="D82:P82"/>
-    <mergeCell ref="D83:P83"/>
-    <mergeCell ref="D84:P84"/>
-    <mergeCell ref="D76:P76"/>
-    <mergeCell ref="D77:P77"/>
-    <mergeCell ref="D78:P78"/>
-    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="B11:B29"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="Q38:Q41"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="D11:P13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D21:P25"/>
+    <mergeCell ref="C21:C25"/>
+    <mergeCell ref="Q21:Q25"/>
+    <mergeCell ref="Q11:Q13"/>
+    <mergeCell ref="Q26:Q29"/>
+    <mergeCell ref="D15:P19"/>
+    <mergeCell ref="C15:C19"/>
+    <mergeCell ref="Q15:Q19"/>
+    <mergeCell ref="D14:P14"/>
     <mergeCell ref="D71:P71"/>
     <mergeCell ref="D72:P72"/>
     <mergeCell ref="D73:P73"/>
@@ -4688,23 +4642,69 @@
     <mergeCell ref="Q66:Q70"/>
     <mergeCell ref="R66:R70"/>
     <mergeCell ref="S66:S70"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="B11:B29"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="Q38:Q41"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D11:P13"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D21:P25"/>
-    <mergeCell ref="C21:C25"/>
-    <mergeCell ref="Q21:Q25"/>
-    <mergeCell ref="Q11:Q13"/>
-    <mergeCell ref="Q26:Q29"/>
-    <mergeCell ref="D15:P19"/>
-    <mergeCell ref="C15:C19"/>
-    <mergeCell ref="Q15:Q19"/>
-    <mergeCell ref="D14:P14"/>
+    <mergeCell ref="D80:P80"/>
+    <mergeCell ref="D81:P81"/>
+    <mergeCell ref="D82:P82"/>
+    <mergeCell ref="D83:P83"/>
+    <mergeCell ref="D84:P84"/>
+    <mergeCell ref="D76:P76"/>
+    <mergeCell ref="D77:P77"/>
+    <mergeCell ref="D78:P78"/>
+    <mergeCell ref="D79:P79"/>
+    <mergeCell ref="S11:S13"/>
+    <mergeCell ref="R11:R13"/>
+    <mergeCell ref="S26:S29"/>
+    <mergeCell ref="T26:T29"/>
+    <mergeCell ref="S21:S25"/>
+    <mergeCell ref="T21:T25"/>
+    <mergeCell ref="T11:T13"/>
+    <mergeCell ref="R15:R19"/>
+    <mergeCell ref="S15:S19"/>
+    <mergeCell ref="T15:T19"/>
+    <mergeCell ref="R21:R25"/>
+    <mergeCell ref="R26:R29"/>
+    <mergeCell ref="R30:R33"/>
+    <mergeCell ref="R34:R37"/>
+    <mergeCell ref="D30:P33"/>
+    <mergeCell ref="C30:C33"/>
+    <mergeCell ref="Q30:Q33"/>
+    <mergeCell ref="S30:S33"/>
+    <mergeCell ref="D26:P29"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="D66:P70"/>
+    <mergeCell ref="D61:P61"/>
+    <mergeCell ref="S38:S41"/>
+    <mergeCell ref="R38:R41"/>
+    <mergeCell ref="D38:P41"/>
+    <mergeCell ref="D34:P37"/>
+    <mergeCell ref="Q34:Q37"/>
+    <mergeCell ref="S34:S37"/>
+    <mergeCell ref="D51:P55"/>
+    <mergeCell ref="Q51:Q55"/>
+    <mergeCell ref="R51:R55"/>
+    <mergeCell ref="S51:S55"/>
+    <mergeCell ref="Q46:Q50"/>
+    <mergeCell ref="R46:R50"/>
+    <mergeCell ref="S46:S50"/>
+    <mergeCell ref="U46:U50"/>
+    <mergeCell ref="T66:T70"/>
+    <mergeCell ref="U11:U13"/>
+    <mergeCell ref="U21:U25"/>
+    <mergeCell ref="U26:U29"/>
+    <mergeCell ref="U30:U33"/>
+    <mergeCell ref="U66:U70"/>
+    <mergeCell ref="T56:T60"/>
+    <mergeCell ref="U56:U60"/>
+    <mergeCell ref="T30:T33"/>
+    <mergeCell ref="U42:U45"/>
+    <mergeCell ref="U34:U37"/>
+    <mergeCell ref="U38:U41"/>
+    <mergeCell ref="T34:T37"/>
+    <mergeCell ref="T38:T41"/>
+    <mergeCell ref="U51:U55"/>
+    <mergeCell ref="U15:U19"/>
+    <mergeCell ref="T51:T55"/>
+    <mergeCell ref="T46:T50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
